--- a/rtm_flask/data/e_motor.xlsx
+++ b/rtm_flask/data/e_motor.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhaoYinglong\Documents\vscode\rtm\data_visualization\f12\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\21python\rtm\rtm_flask\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECE857-EEF1-4B25-9720-9546867938F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="1995" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10635" yWindow="1995" windowWidth="21600" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="eff" sheetId="1" r:id="rId1"/>
@@ -324,7 +323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,6 +368,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -642,10 +709,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -919,7 +988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625B218F-4374-46E4-A030-9FFF8001D271}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1296,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839924BD-096C-49F5-B399-CA8672A0960C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1564,14 +1633,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D19199-7F56-415B-9EA5-E0849EF5A340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3076,7 +3148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99052669-CA08-4E83-A0ED-F5A1200B4BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4016,10 +4088,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55EF00D-37A8-4B33-98F4-EE38A3CF2F85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
